--- a/ValueSet-combined-annotation-vs.xlsx
+++ b/ValueSet-combined-annotation-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T22:17:05+00:00</t>
+    <t>2021-09-14T22:17:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
